--- a/use_case_tests/confusion_matrices.xlsx
+++ b/use_case_tests/confusion_matrices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,14 +644,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>llm test</t>
+          <t>à ignorer</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -660,29 +660,51 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>llm test</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Overall</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>39</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B12" t="n">
+        <v>45</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.7222222222222222</v>
+      <c r="F12" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/use_case_tests/confusion_matrices.xlsx
+++ b/use_case_tests/confusion_matrices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,14 +644,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>à ignorer</t>
+          <t>llm test</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -660,51 +660,29 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>llm test</t>
+          <t>Overall</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Overall</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>45</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
   </sheetData>
